--- a/项目总结/汇总表格/SRA2021_G05_会议汇总表格.xlsx
+++ b/项目总结/汇总表格/SRA2021_G05_会议汇总表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="过程会议" sheetId="3" r:id="rId1"/>
@@ -399,9 +399,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -464,6 +464,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -479,7 +494,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -487,46 +518,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,15 +533,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -556,17 +542,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,10 +556,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,11 +579,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -652,19 +652,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,25 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,25 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,49 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,13 +742,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,39 +846,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -903,6 +870,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -913,6 +889,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -936,8 +936,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,10 +949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,7 +961,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,124 +970,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,22 +1485,22 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="21.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="63.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="63.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="15.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="35.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="30.125" customWidth="1"/>
+    <col min="7" max="7" width="35.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="30.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="14.4" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="14.4" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2210,16 +2210,16 @@
       <c r="C33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="D33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H33" s="23"/>
@@ -2245,21 +2245,21 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="11.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="45.3833333333333" customWidth="1"/>
+    <col min="4" max="4" width="45.3796296296296" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="9" max="9" width="40.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="14.4" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="14.4" spans="1:7">
       <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -2291,11 +2291,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="14.4" spans="1:9">
       <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2317,7 +2317,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="14.4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>103</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" ht="14.4" spans="1:7">
       <c r="A5" s="14"/>
       <c r="B5" s="6" t="s">
         <v>68</v>
@@ -2364,7 +2364,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="14.4" spans="1:7">
       <c r="A6" s="14"/>
       <c r="B6" s="6" t="s">
         <v>77</v>
@@ -2385,7 +2385,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" ht="14.4" spans="1:9">
       <c r="A7" s="15" t="s">
         <v>108</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" ht="14.4" spans="1:7">
       <c r="A8" s="15"/>
       <c r="B8" s="6" t="s">
         <v>112</v>
@@ -2457,16 +2457,16 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="16.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="26.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="26.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="14.4" spans="1:7">
       <c r="A1" s="20" t="s">
         <v>115</v>
       </c>
@@ -2561,11 +2561,11 @@
       <selection activeCell="A37" sqref="A37:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="16.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.6296296296296" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="71" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -2573,7 +2573,7 @@
     <col min="9" max="9" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="14.4" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="14.4" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="14.4" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -2636,7 +2636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="14.4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>15</v>
@@ -2659,7 +2659,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" ht="14.4" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
@@ -2682,7 +2682,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" ht="14.4" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
@@ -2705,7 +2705,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" ht="14.4" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
@@ -2728,7 +2728,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" ht="14.4" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -2751,7 +2751,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" ht="14.4" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
         <v>26</v>
@@ -2774,7 +2774,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" ht="14.4" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -2797,7 +2797,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" ht="14.4" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>31</v>
@@ -2822,7 +2822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" ht="14.4" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="s">
         <v>34</v>
@@ -2845,7 +2845,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" ht="14.4" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
@@ -2868,7 +2868,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" ht="14.4" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>40</v>
@@ -2891,7 +2891,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" ht="14.4" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
         <v>42</v>
@@ -2914,7 +2914,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" ht="14.4" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
         <v>45</v>
@@ -2937,7 +2937,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" ht="14.4" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
         <v>47</v>
@@ -2960,7 +2960,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" ht="14.4" spans="1:9">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
         <v>49</v>
@@ -2983,7 +2983,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" ht="14.4" spans="1:9">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
         <v>54</v>
@@ -3008,7 +3008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" ht="14.4" spans="1:9">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
         <v>58</v>
@@ -3031,7 +3031,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" ht="14.4" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
         <v>60</v>
@@ -3054,7 +3054,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" ht="14.4" spans="1:9">
       <c r="A22" s="3"/>
       <c r="B22" s="5" t="s">
         <v>62</v>
@@ -3077,7 +3077,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" ht="14.4" spans="1:9">
       <c r="A23" s="3"/>
       <c r="B23" s="5" t="s">
         <v>66</v>
@@ -3100,7 +3100,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" ht="14.4" spans="1:9">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
         <v>68</v>
@@ -3123,7 +3123,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" ht="14.4" spans="1:9">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="s">
         <v>70</v>
@@ -3146,7 +3146,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" ht="14.4" spans="1:9">
       <c r="A26" s="3"/>
       <c r="B26" s="5" t="s">
         <v>74</v>
@@ -3169,7 +3169,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" ht="14.4" spans="1:9">
       <c r="A27" s="3"/>
       <c r="B27" s="5" t="s">
         <v>77</v>
@@ -3192,7 +3192,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" ht="14.4" spans="1:9">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
         <v>79</v>
@@ -3217,7 +3217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" ht="14.4" spans="1:9">
       <c r="A29" s="3"/>
       <c r="B29" s="5" t="s">
         <v>82</v>
@@ -3240,7 +3240,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" ht="14.4" spans="1:9">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="s">
         <v>84</v>
@@ -3263,7 +3263,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" ht="14.4" spans="1:9">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="s">
         <v>87</v>
@@ -3286,7 +3286,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" ht="14.4" spans="1:9">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="s">
         <v>89</v>
@@ -3309,7 +3309,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" ht="14.4" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>94</v>
@@ -3332,7 +3332,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" ht="14.4" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3345,13 +3345,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" ht="14.4" spans="1:1">
       <c r="A35" s="10"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" ht="14.4" spans="1:1">
       <c r="A36" s="10"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" ht="14.4" spans="1:7">
       <c r="A37" s="11" t="s">
         <v>98</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" ht="14.4" spans="1:7">
       <c r="A38" s="12"/>
       <c r="B38" s="4" t="s">
         <v>2</v>
@@ -3383,7 +3383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" ht="14.4" spans="1:9">
       <c r="A39" s="13" t="s">
         <v>99</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" ht="14.4" spans="1:9">
       <c r="A43" s="15" t="s">
         <v>108</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" ht="14.4" spans="1:7">
       <c r="A44" s="15"/>
       <c r="B44" s="6" t="s">
         <v>112</v>
@@ -3529,7 +3529,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" ht="14.4" spans="1:7">
       <c r="A47" s="11" t="s">
         <v>115</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" ht="17.25" spans="1:7">
+    <row r="49" ht="31.2" spans="1:7">
       <c r="A49" s="17" t="s">
         <v>116</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" ht="17.25" spans="1:7">
+    <row r="50" ht="15.6" spans="1:7">
       <c r="A50" s="19" t="s">
         <v>121</v>
       </c>

--- a/项目总结/汇总表格/SRA2021_G05_会议汇总表格.xlsx
+++ b/项目总结/汇总表格/SRA2021_G05_会议汇总表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="过程会议" sheetId="3" r:id="rId1"/>
@@ -370,28 +370,28 @@
     <t>JAD会议</t>
   </si>
   <si>
+    <t>徐总、陈幼安、陈炜舜、刘伯、邢海粟、朱涵、章拾瑜、朱涵、陈正祎、倪嘉龙、倪天伦</t>
+  </si>
+  <si>
+    <t>徐总</t>
+  </si>
+  <si>
+    <t>SRA2021-G05-JAD会议纪要</t>
+  </si>
+  <si>
+    <t>CCB会议</t>
+  </si>
+  <si>
+    <t>陈幼安、邢海粟、朱涵、章拾瑜、朱涵、陈正祎、倪天伦</t>
+  </si>
+  <si>
+    <t>陈幼安</t>
+  </si>
+  <si>
+    <t>SRA2021-G05-CCB会议记录</t>
+  </si>
+  <si>
     <t>2021.4.29</t>
-  </si>
-  <si>
-    <t>徐总、陈幼安、陈炜舜、刘伯、邢海粟、朱涵、章拾瑜、朱涵、陈正祎、倪嘉龙、倪天伦</t>
-  </si>
-  <si>
-    <t>徐总</t>
-  </si>
-  <si>
-    <t>SRA2021-G05-JAD会议纪要</t>
-  </si>
-  <si>
-    <t>CCB会议</t>
-  </si>
-  <si>
-    <t>陈幼安、邢海粟、朱涵、章拾瑜、朱涵、陈正祎、倪天伦</t>
-  </si>
-  <si>
-    <t>陈幼安</t>
-  </si>
-  <si>
-    <t>SRA2021-G05-CCB会议记录</t>
   </si>
 </sst>
 </file>
@@ -399,8 +399,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -464,21 +464,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -494,16 +479,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,40 +501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,15 +518,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,14 +541,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -652,25 +652,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,31 +694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,25 +718,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,48 +796,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -831,26 +831,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,8 +875,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,6 +892,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,15 +954,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -949,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,7 +974,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,128 +983,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,8 +1165,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="36" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="38" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,7 +1180,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="36" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,22 +1510,22 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="21.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="21.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="63.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="15.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="63.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.6333333333333" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="35.8796296296296" customWidth="1"/>
-    <col min="8" max="8" width="30.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="35.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="30.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,7 +1536,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" ht="14.4" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1530,7 +1555,7 @@
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1548,13 +1573,13 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="27" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1572,13 +1597,13 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3"/>
@@ -1594,13 +1619,13 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3"/>
@@ -1616,13 +1641,13 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3"/>
@@ -1638,13 +1663,13 @@
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3"/>
@@ -1660,13 +1685,13 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3"/>
@@ -1682,13 +1707,13 @@
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3"/>
@@ -1704,13 +1729,13 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3"/>
@@ -1726,13 +1751,13 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="27" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1750,13 +1775,13 @@
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3"/>
@@ -1772,13 +1797,13 @@
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
@@ -1794,13 +1819,13 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3"/>
@@ -1816,13 +1841,13 @@
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3"/>
@@ -1838,13 +1863,13 @@
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3"/>
@@ -1860,13 +1885,13 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3"/>
@@ -1882,13 +1907,13 @@
       <c r="E18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3"/>
@@ -1904,13 +1929,13 @@
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1928,13 +1953,13 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3"/>
@@ -1950,13 +1975,13 @@
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3"/>
@@ -1972,13 +1997,13 @@
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:8">
       <c r="A23" s="3"/>
@@ -1994,13 +2019,13 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:8">
       <c r="A24" s="3"/>
@@ -2016,13 +2041,13 @@
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3"/>
@@ -2038,13 +2063,13 @@
       <c r="E25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3"/>
@@ -2060,13 +2085,13 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:8">
       <c r="A27" s="3"/>
@@ -2082,13 +2107,13 @@
       <c r="E27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:8">
       <c r="A28" s="3"/>
@@ -2104,13 +2129,13 @@
       <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="27" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2128,13 +2153,13 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:8">
       <c r="A30" s="3"/>
@@ -2150,13 +2175,13 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="23"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:8">
       <c r="A31" s="3"/>
@@ -2172,13 +2197,13 @@
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="23"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:8">
       <c r="A32" s="3"/>
@@ -2194,13 +2219,13 @@
       <c r="E32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="23"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3"/>
@@ -2216,16 +2241,16 @@
       <c r="E33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="26" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="8:8">
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="27" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2242,24 +2267,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="11.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="11.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="45.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="45.3833333333333" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="40.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="40.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
@@ -2270,7 +2295,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" ht="14.4" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -2291,7 +2316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
@@ -2313,11 +2338,11 @@
       <c r="G3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="14" t="s">
         <v>103</v>
       </c>
@@ -2339,11 +2364,11 @@
       <c r="G4" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="14"/>
       <c r="B5" s="6" t="s">
         <v>68</v>
@@ -2364,7 +2389,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="14"/>
       <c r="B6" s="6" t="s">
         <v>77</v>
@@ -2385,7 +2410,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="15" t="s">
         <v>108</v>
       </c>
@@ -2407,11 +2432,11 @@
       <c r="G7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="15"/>
       <c r="B8" s="6" t="s">
         <v>112</v>
@@ -2432,8 +2457,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="9:9">
-      <c r="I9" t="s">
+    <row r="9" spans="8:8">
+      <c r="H9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2454,19 +2479,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="16.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="26.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="73.875" customWidth="1"/>
+    <col min="5" max="5" width="16.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="26.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
         <v>115</v>
       </c>
@@ -2477,70 +2502,71 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>119</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A4" s="24" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A4" s="22" t="s">
-        <v>121</v>
-      </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
         <v>122</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2561,11 +2587,11 @@
       <selection activeCell="A37" sqref="A37:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="16.6333333333333" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="17.3833333333333" customWidth="1"/>
     <col min="4" max="4" width="71" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -2573,7 +2599,7 @@
     <col min="9" max="9" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2586,7 +2612,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" ht="14.4" spans="1:9">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2611,7 +2637,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="14.4" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -2636,7 +2662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>15</v>
@@ -2659,7 +2685,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="14.4" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
@@ -2682,7 +2708,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" ht="14.4" spans="1:9">
+    <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
@@ -2705,7 +2731,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" ht="14.4" spans="1:9">
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
@@ -2728,7 +2754,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" ht="14.4" spans="1:9">
+    <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -2751,7 +2777,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" ht="14.4" spans="1:9">
+    <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
         <v>26</v>
@@ -2774,7 +2800,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" ht="14.4" spans="1:9">
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>29</v>
@@ -2797,7 +2823,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" ht="14.4" spans="1:9">
+    <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>31</v>
@@ -2822,7 +2848,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="s">
         <v>34</v>
@@ -2845,7 +2871,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" ht="14.4" spans="1:9">
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
@@ -2868,7 +2894,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" ht="14.4" spans="1:9">
+    <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>40</v>
@@ -2891,7 +2917,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" ht="14.4" spans="1:9">
+    <row r="15" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
         <v>42</v>
@@ -2914,7 +2940,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" ht="14.4" spans="1:9">
+    <row r="16" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
         <v>45</v>
@@ -2937,7 +2963,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" ht="14.4" spans="1:9">
+    <row r="17" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
         <v>47</v>
@@ -2960,7 +2986,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" ht="14.4" spans="1:9">
+    <row r="18" spans="1:9">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
         <v>49</v>
@@ -2983,7 +3009,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" ht="14.4" spans="1:9">
+    <row r="19" spans="1:9">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
         <v>54</v>
@@ -3008,7 +3034,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" ht="14.4" spans="1:9">
+    <row r="20" spans="1:9">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
         <v>58</v>
@@ -3031,7 +3057,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" ht="14.4" spans="1:9">
+    <row r="21" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
         <v>60</v>
@@ -3054,7 +3080,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" ht="14.4" spans="1:9">
+    <row r="22" spans="1:9">
       <c r="A22" s="3"/>
       <c r="B22" s="5" t="s">
         <v>62</v>
@@ -3077,7 +3103,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" ht="14.4" spans="1:9">
+    <row r="23" spans="1:9">
       <c r="A23" s="3"/>
       <c r="B23" s="5" t="s">
         <v>66</v>
@@ -3100,7 +3126,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" ht="14.4" spans="1:9">
+    <row r="24" spans="1:9">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
         <v>68</v>
@@ -3123,7 +3149,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" ht="14.4" spans="1:9">
+    <row r="25" spans="1:9">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="s">
         <v>70</v>
@@ -3146,7 +3172,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" ht="14.4" spans="1:9">
+    <row r="26" spans="1:9">
       <c r="A26" s="3"/>
       <c r="B26" s="5" t="s">
         <v>74</v>
@@ -3169,7 +3195,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" ht="14.4" spans="1:9">
+    <row r="27" spans="1:9">
       <c r="A27" s="3"/>
       <c r="B27" s="5" t="s">
         <v>77</v>
@@ -3192,7 +3218,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" ht="14.4" spans="1:9">
+    <row r="28" spans="1:9">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
         <v>79</v>
@@ -3217,7 +3243,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" ht="14.4" spans="1:9">
+    <row r="29" spans="1:9">
       <c r="A29" s="3"/>
       <c r="B29" s="5" t="s">
         <v>82</v>
@@ -3240,7 +3266,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" ht="14.4" spans="1:9">
+    <row r="30" spans="1:9">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="s">
         <v>84</v>
@@ -3263,7 +3289,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" ht="14.4" spans="1:9">
+    <row r="31" spans="1:9">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="s">
         <v>87</v>
@@ -3286,7 +3312,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" ht="14.4" spans="1:9">
+    <row r="32" spans="1:9">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="s">
         <v>89</v>
@@ -3309,7 +3335,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" ht="14.4" spans="1:9">
+    <row r="33" spans="1:9">
       <c r="A33" s="9"/>
       <c r="B33" s="2" t="s">
         <v>94</v>
@@ -3332,7 +3358,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" ht="14.4" spans="1:9">
+    <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3345,13 +3371,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" ht="14.4" spans="1:1">
+    <row r="35" spans="1:1">
       <c r="A35" s="10"/>
     </row>
-    <row r="36" ht="14.4" spans="1:1">
+    <row r="36" spans="1:1">
       <c r="A36" s="10"/>
     </row>
-    <row r="37" ht="14.4" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37" s="11" t="s">
         <v>98</v>
       </c>
@@ -3362,7 +3388,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="14.4" spans="1:7">
+    <row r="38" spans="1:7">
       <c r="A38" s="12"/>
       <c r="B38" s="4" t="s">
         <v>2</v>
@@ -3383,7 +3409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" ht="14.4" spans="1:9">
+    <row r="39" spans="1:9">
       <c r="A39" s="13" t="s">
         <v>99</v>
       </c>
@@ -3477,7 +3503,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" ht="14.4" spans="1:9">
+    <row r="43" spans="1:9">
       <c r="A43" s="15" t="s">
         <v>108</v>
       </c>
@@ -3503,7 +3529,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" ht="14.4" spans="1:7">
+    <row r="44" spans="1:7">
       <c r="A44" s="15"/>
       <c r="B44" s="6" t="s">
         <v>112</v>
@@ -3529,7 +3555,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" ht="14.4" spans="1:7">
+    <row r="47" spans="1:7">
       <c r="A47" s="11" t="s">
         <v>115</v>
       </c>
@@ -3561,32 +3587,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" ht="31.2" spans="1:7">
+    <row r="49" ht="17.25" spans="1:7">
       <c r="A49" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="2" t="s">
+    </row>
+    <row r="50" ht="17.25" spans="1:7">
+      <c r="A50" s="19" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="50" ht="15.6" spans="1:7">
-      <c r="A50" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>87</v>
@@ -3595,16 +3621,16 @@
         <v>50</v>
       </c>
       <c r="D50" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="F50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
